--- a/Data/MapAreas.xlsx
+++ b/Data/MapAreas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectAres\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectPyxis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE37CF2-02F4-48DF-AB7A-8D9A072B93D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC65080A-6E32-47A9-80D7-C5C3D14A46D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>RoomID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Control Room</t>
   </si>
   <si>
-    <t>This is the control room of the ship, we can control most of the operations from her</t>
-  </si>
-  <si>
     <t>Crew Room</t>
   </si>
   <si>
@@ -70,6 +67,27 @@
   </si>
   <si>
     <t>Cryogenics</t>
+  </si>
+  <si>
+    <t>This is the control room of the ship, we can control most of the operations from here</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Knife%100</t>
+  </si>
+  <si>
+    <t>Gun%100</t>
+  </si>
+  <si>
+    <t>Batteries%100</t>
+  </si>
+  <si>
+    <t>ExcapePod</t>
   </si>
 </sst>
 </file>
@@ -387,21 +405,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="69.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" customWidth="1"/>
     <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +430,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>501</v>
       </c>
@@ -420,95 +445,107 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>504</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>505</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>506</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>507</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>508</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>509</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MapAreas.xlsx
+++ b/Data/MapAreas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectPyxis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC65080A-6E32-47A9-80D7-C5C3D14A46D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA30C7D-8676-4408-B2D8-D7EA41C7973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>RoomID</t>
   </si>
@@ -78,16 +78,34 @@
     <t>Nodes</t>
   </si>
   <si>
-    <t>Knife%100</t>
-  </si>
-  <si>
-    <t>Gun%100</t>
-  </si>
-  <si>
-    <t>Batteries%100</t>
-  </si>
-  <si>
-    <t>ExcapePod</t>
+    <t>gun%100</t>
+  </si>
+  <si>
+    <t>batteries%100</t>
+  </si>
+  <si>
+    <t>knife%100</t>
+  </si>
+  <si>
+    <t>escapepod%100%false</t>
+  </si>
+  <si>
+    <t>Pod room is where the escape pod is located with the help of which we can leave the spaceship.</t>
+  </si>
+  <si>
+    <t>Medbay is the room with all the necessary medical supplies.</t>
+  </si>
+  <si>
+    <t>Lab is where astronauts can perform various tests.</t>
+  </si>
+  <si>
+    <t>Cafeteria is where we all the food is present.</t>
+  </si>
+  <si>
+    <t>Gym has all the tools for staying fit while on the spaceship</t>
+  </si>
+  <si>
+    <t>Cryogenics is where we perform research on life expectancy.</t>
   </si>
 </sst>
 </file>
@@ -408,7 +426,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +435,7 @@
     <col min="2" max="2" width="23.21875" customWidth="1"/>
     <col min="3" max="3" width="73.109375" customWidth="1"/>
     <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -459,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -473,7 +491,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -484,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -495,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -506,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -520,10 +538,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -534,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -545,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
